--- a/docs/odh/shr-core-LandmarkToBodyLocationDistance-model.xlsx
+++ b/docs/odh/shr-core-LandmarkToBodyLocationDistance-model.xlsx
@@ -134,7 +134,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>How far the anatomical location of interest is from the given landmark</t>
+    <t>How far the body location of interest is from the given landmark.</t>
   </si>
   <si>
     <t>shr-core-LandmarkToBodyLocationDistance-model.value</t>
@@ -143,11 +143,11 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Quantity-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Quantity-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>Quantity representing how far the anatomical location of interest is from the given landmark</t>
+    <t>Quantity representing how far the body location of interest is from the given landmark.</t>
   </si>
   <si>
     <t>shr-core-LandmarkToBodyLocationDistance-model.value.number</t>
@@ -182,7 +182,7 @@
     <t>The unit of measure of the quantity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/UnitsOfLengthVS</t>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-UnitsOfLengthVS</t>
   </si>
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0805701
@@ -335,7 +335,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -354,7 +354,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.95703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.06640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -368,7 +368,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.6875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.3828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
